--- a/src/test/java/com/inputs/signUp.xlsx
+++ b/src/test/java/com/inputs/signUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFS\Desktop\FreshiiTest\Freshii\src\test\java\com\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFS\BusyQA\FreeshiTestMain\src\test\java\com\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C0E4C4-D2C5-414C-A740-D3CF3525AB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C5A15-F0EA-47C1-8F0F-3D2C814959AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2775" windowWidth="12150" windowHeight="12735" xr2:uid="{754B843F-5B1F-4399-9469-5E3168E4FB3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{754B843F-5B1F-4399-9469-5E3168E4FB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="signUp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Test@123</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>test@ram.com</t>
+    <t>test@sam.com</t>
+  </si>
+  <si>
+    <t>test@</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,7 +426,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,11 +473,19 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -500,6 +511,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CF0D3BAF-596F-4484-A9B5-05A58491CB9B}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{EA5BEB9F-718A-4065-89FE-46AA8943F905}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{83B70DEB-5426-408D-A32E-A0536C656278}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
